--- a/src/main/webapp/templates/imp/VIP(EU).xlsx
+++ b/src/main/webapp/templates/imp/VIP(EU).xlsx
@@ -3,26 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\projects\jee\epovipemail\src\main\webapp\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="5295"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">detail!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">detail!$A$1:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Member Code</t>
   </si>
@@ -33,15 +29,9 @@
     <t>Join Date</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Store Code</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>H001</t>
   </si>
   <si>
@@ -64,9 +54,6 @@
   </si>
   <si>
     <t>900080007</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>900090005</t>
@@ -510,7 +497,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,9 +505,8 @@
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -536,236 +522,197 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7">
         <v>43040</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>43041</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7">
         <v>43062</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
         <v>43063</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>43064</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>43065</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>43066</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>43067</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>43068</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
         <v>43069</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>43069</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>43048</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/templates/imp/VIP(EU).xlsx
+++ b/src/main/webapp/templates/imp/VIP(EU).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="5295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Member Code</t>
   </si>
@@ -127,6 +127,15 @@
   <si>
     <t>英国</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-JAN-18</t>
+  </si>
+  <si>
+    <t>01-MAY-18</t>
+  </si>
+  <si>
+    <t>02-APR-18</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,8 +539,8 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
-        <v>43040</v>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -544,8 +553,8 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
-        <v>43041</v>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -558,8 +567,8 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7">
-        <v>43062</v>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -575,8 +584,8 @@
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7">
-        <v>43063</v>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -592,8 +601,8 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
-        <v>43064</v>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -609,8 +618,8 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
-        <v>43065</v>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -626,8 +635,8 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
-        <v>43066</v>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -643,8 +652,8 @@
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
-        <v>43067</v>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -660,8 +669,8 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
-        <v>43068</v>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -677,8 +686,8 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
-        <v>43069</v>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -691,8 +700,8 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
-        <v>43069</v>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -705,8 +714,8 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
-        <v>43048</v>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
